--- a/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_33.xlsx
+++ b/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_33.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_33_1</t>
+          <t>model_1_33_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9995046313220498</v>
+        <v>0.944451515050872</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8245506382872098</v>
+        <v>0.7029077565265669</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8129016928539572</v>
+        <v>0.7662092979284771</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9992700950448434</v>
+        <v>0.9139515506820607</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002061985346742287</v>
+        <v>0.1783265896273202</v>
       </c>
       <c r="G2" t="n">
-        <v>1.173230689643455</v>
+        <v>1.986657200090842</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6692397960782259</v>
+        <v>0.8362557853460539</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001871932754281687</v>
+        <v>0.2865537435682238</v>
       </c>
       <c r="J2" t="n">
-        <v>0.08995245857976641</v>
+        <v>1.210844919140961</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04540908881206809</v>
+        <v>0.4222873306497842</v>
       </c>
       <c r="L2" t="n">
-        <v>1.031703595388812</v>
+        <v>0.9243595098565065</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04612423656842268</v>
+        <v>0.4289379339750574</v>
       </c>
       <c r="N2" t="n">
-        <v>142.3681719994903</v>
+        <v>37.44827727328632</v>
       </c>
       <c r="O2" t="n">
-        <v>283.7033445427068</v>
+        <v>74.41286086151213</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_33_0</t>
+          <t>model_1_33_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9995124367321576</v>
+        <v>0.9443546373847594</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8241482341342347</v>
+        <v>0.7027189647057978</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8122705462948412</v>
+        <v>0.7661211126010297</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9994172043827841</v>
+        <v>0.9140860120123838</v>
       </c>
       <c r="F3" t="n">
-        <v>0.002029495118788885</v>
+        <v>0.1786375947577881</v>
       </c>
       <c r="G3" t="n">
-        <v>1.1759215680673</v>
+        <v>1.987919651865631</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6714973707242038</v>
+        <v>0.8365712191490546</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001494652416332889</v>
+        <v>0.2861059679502472</v>
       </c>
       <c r="J3" t="n">
-        <v>0.08581317574577374</v>
+        <v>1.210383328381107</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0450499180774936</v>
+        <v>0.4226554090009829</v>
       </c>
       <c r="L3" t="n">
-        <v>1.031204049141913</v>
+        <v>0.9242275913324384</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04575940925381766</v>
+        <v>0.429311809192344</v>
       </c>
       <c r="N3" t="n">
-        <v>142.3999364536362</v>
+        <v>37.44479227145403</v>
       </c>
       <c r="O3" t="n">
-        <v>283.7351089968526</v>
+        <v>74.40937585967986</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_33_2</t>
+          <t>model_1_33_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9994263843383487</v>
+        <v>0.9442538135784039</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8238934650752476</v>
+        <v>0.7025252478881792</v>
       </c>
       <c r="D4" t="n">
-        <v>0.811759917881694</v>
+        <v>0.7660338581581773</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9983369619959772</v>
+        <v>0.91421543086109</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002387690505344709</v>
+        <v>0.1789612681317262</v>
       </c>
       <c r="G4" t="n">
-        <v>1.177625209937851</v>
+        <v>1.989215037117031</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6733238589500949</v>
+        <v>0.8368833232318345</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00426506943041312</v>
+        <v>0.2856749845231314</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1027172967146503</v>
+        <v>1.209947702973273</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04886400009561957</v>
+        <v>0.4230381402801953</v>
       </c>
       <c r="L4" t="n">
-        <v>1.036711402345681</v>
+        <v>0.9240902993408053</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04963355925104587</v>
+        <v>0.4297005681066131</v>
       </c>
       <c r="N4" t="n">
-        <v>142.0748573919562</v>
+        <v>37.4411717514142</v>
       </c>
       <c r="O4" t="n">
-        <v>283.4100299351726</v>
+        <v>74.40575533964001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_33_3</t>
+          <t>model_1_33_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9994264077937213</v>
+        <v>0.9441490119781121</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8238896145359401</v>
+        <v>0.7023265198451389</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8117115963726158</v>
+        <v>0.7659479507877497</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9982887298472136</v>
+        <v>0.914339990845829</v>
       </c>
       <c r="F5" t="n">
-        <v>0.002387592871730164</v>
+        <v>0.1792977113665804</v>
       </c>
       <c r="G5" t="n">
-        <v>1.17765095851193</v>
+        <v>1.990543932455899</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6734967021862257</v>
+        <v>0.8371906089146584</v>
       </c>
       <c r="I5" t="n">
-        <v>0.004388766822028331</v>
+        <v>0.2852601818136268</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1026428163005452</v>
+        <v>1.209535300632228</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04886300105120605</v>
+        <v>0.4234356047459641</v>
       </c>
       <c r="L5" t="n">
-        <v>1.036709901201839</v>
+        <v>0.9239475907787058</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04963254447268152</v>
+        <v>0.4301042922403991</v>
       </c>
       <c r="N5" t="n">
-        <v>142.0749391744239</v>
+        <v>37.43741532544289</v>
       </c>
       <c r="O5" t="n">
-        <v>283.4101117176403</v>
+        <v>74.40199891366872</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_33_4</t>
+          <t>model_1_33_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9994283269246413</v>
+        <v>0.9440400783045453</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8238883048739041</v>
+        <v>0.7021226867279418</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8117686260486918</v>
+        <v>0.7658628952269756</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9982566593656362</v>
+        <v>0.9144595427611587</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002379604438040683</v>
+        <v>0.1796474197433349</v>
       </c>
       <c r="G6" t="n">
-        <v>1.177659716227995</v>
+        <v>1.991906965449162</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6732927103416724</v>
+        <v>0.8374948477237425</v>
       </c>
       <c r="I6" t="n">
-        <v>0.004471015592208716</v>
+        <v>0.2848620566973693</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1019096268900517</v>
+        <v>1.209147575990849</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04878118938731079</v>
+        <v>0.4238483452171719</v>
       </c>
       <c r="L6" t="n">
-        <v>1.036587076822954</v>
+        <v>0.9237992555636362</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04954944435686157</v>
+        <v>0.4305235329614392</v>
       </c>
       <c r="N6" t="n">
-        <v>142.0816420152317</v>
+        <v>37.4335182564249</v>
       </c>
       <c r="O6" t="n">
-        <v>283.4168145584481</v>
+        <v>74.39810184465072</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_33_5</t>
+          <t>model_1_33_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9993745760837597</v>
+        <v>0.943926940825037</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8236139113412358</v>
+        <v>0.7019135972618041</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8125226515370434</v>
+        <v>0.765778993460915</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9974753836073926</v>
+        <v>0.914574056147984</v>
       </c>
       <c r="F7" t="n">
-        <v>0.002603343748187833</v>
+        <v>0.1800106235444506</v>
       </c>
       <c r="G7" t="n">
-        <v>1.179494587044414</v>
+        <v>1.993305147671993</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6705956048907487</v>
+        <v>0.8377949594760372</v>
       </c>
       <c r="I7" t="n">
-        <v>0.006474695210562265</v>
+        <v>0.2844807106075375</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1047409933131805</v>
+        <v>1.208783795212231</v>
       </c>
       <c r="K7" t="n">
-        <v>0.05102297274941781</v>
+        <v>0.4242765884944049</v>
       </c>
       <c r="L7" t="n">
-        <v>1.04002713063938</v>
+        <v>0.9236451960170717</v>
       </c>
       <c r="M7" t="n">
-        <v>0.05182653356596056</v>
+        <v>0.4309585206422025</v>
       </c>
       <c r="N7" t="n">
-        <v>141.9019172064447</v>
+        <v>37.42947882028426</v>
       </c>
       <c r="O7" t="n">
-        <v>283.2370897496611</v>
+        <v>74.39406240851008</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_33_8</t>
+          <t>model_1_33_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9993161401923837</v>
+        <v>0.9438094628393612</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8233935029050643</v>
+        <v>0.7016991889477061</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8118670007616897</v>
+        <v>0.7656964317479715</v>
       </c>
       <c r="E8" t="n">
-        <v>0.996838072975118</v>
+        <v>0.914683466388619</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002846584706093832</v>
+        <v>0.1803877616169118</v>
       </c>
       <c r="G8" t="n">
-        <v>1.18096845927198</v>
+        <v>1.994738897055626</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6729408296973722</v>
+        <v>0.8380902779360332</v>
       </c>
       <c r="I8" t="n">
-        <v>0.008109158216709319</v>
+        <v>0.2841163587303435</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1068932625204427</v>
+        <v>1.208445405665393</v>
       </c>
       <c r="K8" t="n">
-        <v>0.05335339451331875</v>
+        <v>0.4247208043137419</v>
       </c>
       <c r="L8" t="n">
-        <v>1.043767027687444</v>
+        <v>0.9234852259940237</v>
       </c>
       <c r="M8" t="n">
-        <v>0.05419365714307584</v>
+        <v>0.4314097324166412</v>
       </c>
       <c r="N8" t="n">
-        <v>141.7232707040691</v>
+        <v>37.42529302783178</v>
       </c>
       <c r="O8" t="n">
-        <v>283.0584432472855</v>
+        <v>74.38987661605761</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_33_7</t>
+          <t>model_1_33_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9993517429261513</v>
+        <v>0.9436875686316276</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8231409712806578</v>
+        <v>0.7014793115379887</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8107479400854943</v>
+        <v>0.7656148008195061</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9972134339252727</v>
+        <v>0.9147877981449524</v>
       </c>
       <c r="F9" t="n">
-        <v>0.002698387376306129</v>
+        <v>0.1807790770304711</v>
       </c>
       <c r="G9" t="n">
-        <v>1.182657139407188</v>
+        <v>1.996209218306848</v>
       </c>
       <c r="H9" t="n">
-        <v>0.676943644849257</v>
+        <v>0.8383822670339207</v>
       </c>
       <c r="I9" t="n">
-        <v>0.007146498006898499</v>
+        <v>0.2837689189381405</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1056650469993228</v>
+        <v>1.20812759958565</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05194600443062131</v>
+        <v>0.4251812284549626</v>
       </c>
       <c r="L9" t="n">
-        <v>1.04148845272632</v>
+        <v>0.9233192423920036</v>
       </c>
       <c r="M9" t="n">
-        <v>0.05276410207344985</v>
+        <v>0.4318774077778308</v>
       </c>
       <c r="N9" t="n">
-        <v>141.8302019048845</v>
+        <v>37.42095912421927</v>
       </c>
       <c r="O9" t="n">
-        <v>283.1653744481009</v>
+        <v>74.38554271244509</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_33_6</t>
+          <t>model_1_33_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9993592894151822</v>
+        <v>0.9435611170667764</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8231005354135912</v>
+        <v>0.7012538939880519</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8104633121092321</v>
+        <v>0.765534635923305</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9973238818890561</v>
+        <v>0.9148870319699903</v>
       </c>
       <c r="F10" t="n">
-        <v>0.002666974914247526</v>
+        <v>0.181185022869203</v>
       </c>
       <c r="G10" t="n">
-        <v>1.182927534236452</v>
+        <v>1.997716586501229</v>
       </c>
       <c r="H10" t="n">
-        <v>0.677961742616669</v>
+        <v>0.8386690122194043</v>
       </c>
       <c r="I10" t="n">
-        <v>0.006863240358640021</v>
+        <v>0.2834384559922233</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1055538184535</v>
+        <v>1.207831772169908</v>
       </c>
       <c r="K10" t="n">
-        <v>0.05164276245755572</v>
+        <v>0.425658340537576</v>
       </c>
       <c r="L10" t="n">
-        <v>1.041005477428342</v>
+        <v>0.9231470530270998</v>
       </c>
       <c r="M10" t="n">
-        <v>0.05245608434243923</v>
+        <v>0.4323620338988083</v>
       </c>
       <c r="N10" t="n">
-        <v>141.8536208796158</v>
+        <v>37.41647308807323</v>
       </c>
       <c r="O10" t="n">
-        <v>283.1887934228322</v>
+        <v>74.38105667629905</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_33_9</t>
+          <t>model_1_33_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9992399854684207</v>
+        <v>0.9434299576874809</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8229902857580684</v>
+        <v>0.7010228299222352</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8125094637710181</v>
+        <v>0.7654555954304052</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9959697809808045</v>
+        <v>0.9149810578248943</v>
       </c>
       <c r="F11" t="n">
-        <v>0.003163580777679582</v>
+        <v>0.1816060821443353</v>
       </c>
       <c r="G11" t="n">
-        <v>1.183664774190586</v>
+        <v>1.999261712973296</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6706427767651506</v>
+        <v>0.8389517354794759</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01033600188033004</v>
+        <v>0.2831253363377905</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1141465928514234</v>
+        <v>1.207561586637811</v>
       </c>
       <c r="K11" t="n">
-        <v>0.05624571786082547</v>
+        <v>0.4261526512229336</v>
       </c>
       <c r="L11" t="n">
-        <v>1.048640930021072</v>
+        <v>0.9229684530212506</v>
       </c>
       <c r="M11" t="n">
-        <v>0.05713153169204318</v>
+        <v>0.4328641294833308</v>
       </c>
       <c r="N11" t="n">
-        <v>141.5121014708563</v>
+        <v>37.41183064278312</v>
       </c>
       <c r="O11" t="n">
-        <v>282.8472740140727</v>
+        <v>74.37641423100895</v>
       </c>
     </row>
   </sheetData>
